--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.446000000000001</v>
+        <v>7.408999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.422</v>
+        <v>5.24</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.446</v>
+        <v>16.348</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.113</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.378</v>
+        <v>5.497999999999999</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.658</v>
+        <v>16.557</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.664</v>
+        <v>16.559</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.527</v>
       </c>
     </row>
     <row r="24">
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.588</v>
+        <v>6.034</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.561999999999999</v>
+        <v>5.427</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.956</v>
+        <v>6.453</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.81</v>
+        <v>16.805</v>
       </c>
     </row>
     <row r="35">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.44</v>
+        <v>17.117</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.588</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.614</v>
+        <v>16.535</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.212</v>
+        <v>16.808</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.664</v>
+        <v>4.944000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.582</v>
+        <v>5.090999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,7 +1553,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.916</v>
+        <v>5.013</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1562,7 +1562,7 @@
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.858</v>
+        <v>17.447</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.2</v>
+        <v>17.43</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.36</v>
+        <v>17.07</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.688</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.542</v>
+        <v>17.885</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.838</v>
+        <v>16.872</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.596</v>
+        <v>5.586999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
